--- a/Atividade8-MLP/Branch_and_Bound/scores_unbalanced-Branch_and_Bound-Normalizado_MLPClassifier.xlsx
+++ b/Atividade8-MLP/Branch_and_Bound/scores_unbalanced-Branch_and_Bound-Normalizado_MLPClassifier.xlsx
@@ -10983,13 +10983,13 @@
         <v>4</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H365">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I365" t="s">
         <v>11</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I427" t="s">
         <v>11</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <v>0.9418604651162792</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I444" t="s">
         <v>11</v>
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="H445">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I445" t="s">
         <v>11</v>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="H485">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I485" t="s">
         <v>11</v>
@@ -15745,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="H529">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I529" t="s">
         <v>11</v>
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="H539">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I539" t="s">
         <v>11</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="H559">
-        <v>0.8953488372093024</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I559" t="s">
         <v>11</v>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="H565">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I565" t="s">
         <v>11</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="H629">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I629" t="s">
         <v>11</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="H659">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I659" t="s">
         <v>11</v>
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="H675">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I675" t="s">
         <v>11</v>
@@ -20443,7 +20443,7 @@
         <v>0</v>
       </c>
       <c r="H691">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I691" t="s">
         <v>11</v>
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="H695">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I695" t="s">
         <v>11</v>
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="H701">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I701" t="s">
         <v>11</v>
@@ -21139,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="H715">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I715" t="s">
         <v>11</v>
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="H727">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I727" t="s">
         <v>11</v>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="H735">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I735" t="s">
         <v>11</v>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="H739">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I739" t="s">
         <v>11</v>
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="H755">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I755" t="s">
         <v>11</v>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="H759">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I759" t="s">
         <v>11</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="H768">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I768" t="s">
         <v>11</v>
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="H785">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I785" t="s">
         <v>11</v>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
       <c r="H795">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I795" t="s">
         <v>11</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="H801">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I801" t="s">
         <v>11</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="H827">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I827" t="s">
         <v>11</v>
@@ -24439,13 +24439,13 @@
         <v>8</v>
       </c>
       <c r="F829">
-        <v>0.1818181818181819</v>
+        <v>0</v>
       </c>
       <c r="G829">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H829">
-        <v>0.8488372093023255</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I829" t="s">
         <v>11</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="H835">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I835" t="s">
         <v>11</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="H859">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I859" t="s">
         <v>11</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="H865">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I865" t="s">
         <v>11</v>
@@ -26765,7 +26765,7 @@
         <v>0</v>
       </c>
       <c r="H909">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I909" t="s">
         <v>11</v>
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="H911">
-        <v>0.9411764705882352</v>
+        <v>0.9058823529411764</v>
       </c>
       <c r="I911" t="s">
         <v>11</v>
@@ -26997,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="H917">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I917" t="s">
         <v>11</v>
@@ -27142,7 +27142,7 @@
         <v>0</v>
       </c>
       <c r="H922">
-        <v>0.9302325581395348</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I922" t="s">
         <v>11</v>
@@ -27345,7 +27345,7 @@
         <v>0</v>
       </c>
       <c r="H929">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I929" t="s">
         <v>11</v>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
       <c r="H935">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I935" t="s">
         <v>11</v>
@@ -27635,7 +27635,7 @@
         <v>0</v>
       </c>
       <c r="H939">
-        <v>0.8837209302325582</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I939" t="s">
         <v>11</v>
@@ -27722,7 +27722,7 @@
         <v>0</v>
       </c>
       <c r="H942">
-        <v>0.9186046511627908</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I942" t="s">
         <v>11</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="H955">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I955" t="s">
         <v>11</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="H965">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I965" t="s">
         <v>11</v>
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="H975">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I975" t="s">
         <v>11</v>
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H979">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I979" t="s">
         <v>11</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="H989">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I989" t="s">
         <v>11</v>
@@ -29114,7 +29114,7 @@
         <v>0</v>
       </c>
       <c r="H990">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I990" t="s">
         <v>11</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="H995">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I995" t="s">
         <v>11</v>
@@ -29659,13 +29659,13 @@
         <v>8</v>
       </c>
       <c r="F1009">
-        <v>0.09090909090909093</v>
+        <v>0</v>
       </c>
       <c r="G1009">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H1009">
-        <v>0.8255813953488372</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1009" t="s">
         <v>11</v>
@@ -30129,7 +30129,7 @@
         <v>0</v>
       </c>
       <c r="H1025">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1025" t="s">
         <v>11</v>
@@ -30419,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="H1035">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1035" t="s">
         <v>11</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="H1045">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1045" t="s">
         <v>11</v>
@@ -30883,7 +30883,7 @@
         <v>0</v>
       </c>
       <c r="H1051">
-        <v>0.9058823529411764</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I1051" t="s">
         <v>11</v>
@@ -31173,7 +31173,7 @@
         <v>0</v>
       </c>
       <c r="H1061">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I1061" t="s">
         <v>11</v>
@@ -31289,7 +31289,7 @@
         <v>0</v>
       </c>
       <c r="H1065">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1065" t="s">
         <v>11</v>
@@ -31579,7 +31579,7 @@
         <v>0</v>
       </c>
       <c r="H1075">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1075" t="s">
         <v>11</v>
